--- a/casefile_test_record/casefile_test.xlsx
+++ b/casefile_test_record/casefile_test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="53-system" sheetId="1" r:id="rId1"/>
+    <sheet name="418-system" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -81,6 +82,81 @@
   </si>
   <si>
     <t>max gsk</t>
+  </si>
+  <si>
+    <t>region 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-170</t>
+  </si>
+  <si>
+    <t>region 2</t>
+  </si>
+  <si>
+    <t>418-II</t>
+  </si>
+  <si>
+    <t>418-III</t>
+  </si>
+  <si>
+    <t>418-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-80</t>
+  </si>
+  <si>
+    <t>418-IV</t>
+  </si>
+  <si>
+    <t>2-110</t>
+  </si>
+  <si>
+    <t>1-132</t>
+  </si>
+  <si>
+    <t>1-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-62</t>
+  </si>
+  <si>
+    <t>1-256</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-19</t>
+  </si>
+  <si>
+    <t>418-V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-15</t>
   </si>
 </sst>
 </file>
@@ -96,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +194,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,12 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,14 +368,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -304,18 +392,42 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -610,178 +722,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="A3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="4">
         <v>22</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="4">
         <v>27</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="4">
         <v>23</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="4">
         <v>13</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="18">
         <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -806,145 +918,145 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="4">
         <v>6</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="4">
         <v>8</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="4">
         <v>27</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="4">
         <v>23</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="4">
         <v>13</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19">
         <v>3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -984,4 +1096,2431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="1">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1">
+        <v>69</v>
+      </c>
+      <c r="H7" s="1">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="1">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="1">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1">
+        <v>77</v>
+      </c>
+      <c r="H9" s="1">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26">
+        <v>88</v>
+      </c>
+      <c r="D11" s="26">
+        <v>88</v>
+      </c>
+      <c r="F11" s="26">
+        <v>88</v>
+      </c>
+      <c r="H11" s="26">
+        <v>88</v>
+      </c>
+      <c r="J11" s="26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>98</v>
+      </c>
+      <c r="F12" s="1">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1">
+        <v>98</v>
+      </c>
+      <c r="J12" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="1">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1">
+        <v>103</v>
+      </c>
+      <c r="J13" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="1">
+        <v>104</v>
+      </c>
+      <c r="D14" s="1">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1">
+        <v>104</v>
+      </c>
+      <c r="J14" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="1">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1">
+        <v>117</v>
+      </c>
+      <c r="F15" s="1">
+        <v>117</v>
+      </c>
+      <c r="H15" s="1">
+        <v>117</v>
+      </c>
+      <c r="J15" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="1">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1">
+        <v>120</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>120</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1">
+        <v>120</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="1">
+        <v>122</v>
+      </c>
+      <c r="D17" s="1">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1">
+        <v>122</v>
+      </c>
+      <c r="H17" s="1">
+        <v>122</v>
+      </c>
+      <c r="J17" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1">
+        <v>125</v>
+      </c>
+      <c r="F18" s="1">
+        <v>125</v>
+      </c>
+      <c r="H18" s="1">
+        <v>125</v>
+      </c>
+      <c r="J18" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="1">
+        <v>126</v>
+      </c>
+      <c r="D19" s="1">
+        <v>126</v>
+      </c>
+      <c r="F19" s="1">
+        <v>126</v>
+      </c>
+      <c r="H19" s="1">
+        <v>126</v>
+      </c>
+      <c r="J19" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="1">
+        <v>128</v>
+      </c>
+      <c r="D20" s="1">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1">
+        <v>128</v>
+      </c>
+      <c r="H20" s="1">
+        <v>128</v>
+      </c>
+      <c r="J20" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="1">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1">
+        <v>131</v>
+      </c>
+      <c r="F21" s="1">
+        <v>131</v>
+      </c>
+      <c r="H21" s="1">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="1">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1">
+        <v>132</v>
+      </c>
+      <c r="F22" s="1">
+        <v>132</v>
+      </c>
+      <c r="H22" s="1">
+        <v>132</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1">
+        <v>132</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="1">
+        <v>135</v>
+      </c>
+      <c r="D23" s="1">
+        <v>135</v>
+      </c>
+      <c r="F23" s="1">
+        <v>135</v>
+      </c>
+      <c r="H23" s="1">
+        <v>135</v>
+      </c>
+      <c r="J23" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="1">
+        <v>149</v>
+      </c>
+      <c r="D24" s="1">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1">
+        <v>149</v>
+      </c>
+      <c r="H24" s="1">
+        <v>149</v>
+      </c>
+      <c r="J24" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="1">
+        <v>150</v>
+      </c>
+      <c r="D25" s="1">
+        <v>150</v>
+      </c>
+      <c r="F25" s="1">
+        <v>150</v>
+      </c>
+      <c r="H25" s="1">
+        <v>150</v>
+      </c>
+      <c r="J25" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="1">
+        <v>155</v>
+      </c>
+      <c r="D26" s="1">
+        <v>155</v>
+      </c>
+      <c r="F26" s="1">
+        <v>155</v>
+      </c>
+      <c r="H26" s="1">
+        <v>155</v>
+      </c>
+      <c r="J26" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="1">
+        <v>156</v>
+      </c>
+      <c r="D27" s="1">
+        <v>156</v>
+      </c>
+      <c r="F27" s="1">
+        <v>156</v>
+      </c>
+      <c r="H27" s="1">
+        <v>156</v>
+      </c>
+      <c r="J27" s="1">
+        <v>156</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="1">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1">
+        <v>164</v>
+      </c>
+      <c r="H28" s="1">
+        <v>164</v>
+      </c>
+      <c r="J28" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="1">
+        <v>165</v>
+      </c>
+      <c r="D29" s="1">
+        <v>165</v>
+      </c>
+      <c r="F29" s="1">
+        <v>165</v>
+      </c>
+      <c r="H29" s="1">
+        <v>165</v>
+      </c>
+      <c r="J29" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="1">
+        <v>166</v>
+      </c>
+      <c r="D30" s="1">
+        <v>166</v>
+      </c>
+      <c r="F30" s="1">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1">
+        <v>166</v>
+      </c>
+      <c r="J30" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26">
+        <v>169</v>
+      </c>
+      <c r="D31" s="26">
+        <v>169</v>
+      </c>
+      <c r="F31" s="26">
+        <v>169</v>
+      </c>
+      <c r="H31" s="26">
+        <v>169</v>
+      </c>
+      <c r="J31" s="26">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="1">
+        <v>170</v>
+      </c>
+      <c r="D32" s="1">
+        <v>170</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1">
+        <v>170</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1">
+        <v>170</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1">
+        <v>170</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="1">
+        <v>177</v>
+      </c>
+      <c r="D33" s="1">
+        <v>177</v>
+      </c>
+      <c r="F33" s="1">
+        <v>177</v>
+      </c>
+      <c r="H33" s="1">
+        <v>177</v>
+      </c>
+      <c r="J33" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="1">
+        <v>192</v>
+      </c>
+      <c r="D34" s="1">
+        <v>192</v>
+      </c>
+      <c r="F34" s="1">
+        <v>192</v>
+      </c>
+      <c r="H34" s="1">
+        <v>192</v>
+      </c>
+      <c r="J34" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="1">
+        <v>199</v>
+      </c>
+      <c r="D35" s="1">
+        <v>199</v>
+      </c>
+      <c r="F35" s="1">
+        <v>199</v>
+      </c>
+      <c r="H35" s="1">
+        <v>199</v>
+      </c>
+      <c r="J35" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="1">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>200</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="J36" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="1">
+        <v>201</v>
+      </c>
+      <c r="D37" s="1">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1">
+        <v>201</v>
+      </c>
+      <c r="H37" s="1">
+        <v>201</v>
+      </c>
+      <c r="J37" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="1">
+        <v>206</v>
+      </c>
+      <c r="D38" s="1">
+        <v>206</v>
+      </c>
+      <c r="F38" s="1">
+        <v>206</v>
+      </c>
+      <c r="H38" s="1">
+        <v>206</v>
+      </c>
+      <c r="J38" s="1">
+        <v>206</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="1">
+        <v>209</v>
+      </c>
+      <c r="D39" s="1">
+        <v>209</v>
+      </c>
+      <c r="F39" s="1">
+        <v>209</v>
+      </c>
+      <c r="H39" s="1">
+        <v>209</v>
+      </c>
+      <c r="J39" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26">
+        <v>212</v>
+      </c>
+      <c r="D40" s="26">
+        <v>212</v>
+      </c>
+      <c r="F40" s="26">
+        <v>212</v>
+      </c>
+      <c r="H40" s="26">
+        <v>212</v>
+      </c>
+      <c r="J40" s="26">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="1">
+        <v>215</v>
+      </c>
+      <c r="D41" s="1">
+        <v>215</v>
+      </c>
+      <c r="F41" s="1">
+        <v>215</v>
+      </c>
+      <c r="H41" s="1">
+        <v>215</v>
+      </c>
+      <c r="J41" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="1">
+        <v>217</v>
+      </c>
+      <c r="D42" s="1">
+        <v>217</v>
+      </c>
+      <c r="F42" s="1">
+        <v>217</v>
+      </c>
+      <c r="H42" s="1">
+        <v>217</v>
+      </c>
+      <c r="J42" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="1">
+        <v>218</v>
+      </c>
+      <c r="D43" s="1">
+        <v>218</v>
+      </c>
+      <c r="F43" s="1">
+        <v>218</v>
+      </c>
+      <c r="H43" s="1">
+        <v>218</v>
+      </c>
+      <c r="J43" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26">
+        <v>220</v>
+      </c>
+      <c r="D44" s="26">
+        <v>220</v>
+      </c>
+      <c r="F44" s="26">
+        <v>220</v>
+      </c>
+      <c r="H44" s="26">
+        <v>220</v>
+      </c>
+      <c r="J44" s="26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="1">
+        <v>221</v>
+      </c>
+      <c r="D45" s="1">
+        <v>221</v>
+      </c>
+      <c r="F45" s="1">
+        <v>221</v>
+      </c>
+      <c r="H45" s="1">
+        <v>221</v>
+      </c>
+      <c r="J45" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="1">
+        <v>222</v>
+      </c>
+      <c r="D46" s="1">
+        <v>222</v>
+      </c>
+      <c r="F46" s="1">
+        <v>222</v>
+      </c>
+      <c r="H46" s="1">
+        <v>222</v>
+      </c>
+      <c r="J46" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="1">
+        <v>247</v>
+      </c>
+      <c r="D47" s="1">
+        <v>247</v>
+      </c>
+      <c r="F47" s="1">
+        <v>247</v>
+      </c>
+      <c r="H47" s="1">
+        <v>247</v>
+      </c>
+      <c r="J47" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="1">
+        <v>248</v>
+      </c>
+      <c r="D48" s="1">
+        <v>248</v>
+      </c>
+      <c r="F48" s="1">
+        <v>248</v>
+      </c>
+      <c r="H48" s="1">
+        <v>248</v>
+      </c>
+      <c r="J48" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="1">
+        <v>249</v>
+      </c>
+      <c r="D49" s="1">
+        <v>249</v>
+      </c>
+      <c r="F49" s="1">
+        <v>249</v>
+      </c>
+      <c r="H49" s="1">
+        <v>249</v>
+      </c>
+      <c r="J49" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="1">
+        <v>250</v>
+      </c>
+      <c r="D50" s="1">
+        <v>250</v>
+      </c>
+      <c r="F50" s="1">
+        <v>250</v>
+      </c>
+      <c r="H50" s="1">
+        <v>250</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="1">
+        <v>250</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="1">
+        <v>251</v>
+      </c>
+      <c r="D51" s="1">
+        <v>251</v>
+      </c>
+      <c r="F51" s="1">
+        <v>251</v>
+      </c>
+      <c r="H51" s="1">
+        <v>251</v>
+      </c>
+      <c r="J51" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="1">
+        <v>252</v>
+      </c>
+      <c r="D52" s="1">
+        <v>252</v>
+      </c>
+      <c r="F52" s="1">
+        <v>252</v>
+      </c>
+      <c r="H52" s="1">
+        <v>252</v>
+      </c>
+      <c r="J52" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="1">
+        <v>253</v>
+      </c>
+      <c r="D53" s="1">
+        <v>253</v>
+      </c>
+      <c r="F53" s="1">
+        <v>253</v>
+      </c>
+      <c r="H53" s="1">
+        <v>253</v>
+      </c>
+      <c r="J53" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="1">
+        <v>254</v>
+      </c>
+      <c r="D54" s="1">
+        <v>254</v>
+      </c>
+      <c r="F54" s="1">
+        <v>254</v>
+      </c>
+      <c r="H54" s="1">
+        <v>254</v>
+      </c>
+      <c r="J54" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="1">
+        <v>255</v>
+      </c>
+      <c r="D55" s="1">
+        <v>255</v>
+      </c>
+      <c r="F55" s="1">
+        <v>255</v>
+      </c>
+      <c r="H55" s="1">
+        <v>255</v>
+      </c>
+      <c r="J55" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="1">
+        <v>256</v>
+      </c>
+      <c r="D56" s="1">
+        <v>256</v>
+      </c>
+      <c r="F56" s="1">
+        <v>256</v>
+      </c>
+      <c r="H56" s="1">
+        <v>256</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="1">
+        <v>256</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="1">
+        <v>257</v>
+      </c>
+      <c r="D57" s="1">
+        <v>257</v>
+      </c>
+      <c r="F57" s="1">
+        <v>257</v>
+      </c>
+      <c r="H57" s="1">
+        <v>257</v>
+      </c>
+      <c r="J57" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="1">
+        <v>258</v>
+      </c>
+      <c r="D58" s="1">
+        <v>258</v>
+      </c>
+      <c r="F58" s="1">
+        <v>258</v>
+      </c>
+      <c r="H58" s="1">
+        <v>258</v>
+      </c>
+      <c r="J58" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="1">
+        <v>259</v>
+      </c>
+      <c r="D59" s="1">
+        <v>259</v>
+      </c>
+      <c r="F59" s="1">
+        <v>259</v>
+      </c>
+      <c r="H59" s="1">
+        <v>259</v>
+      </c>
+      <c r="J59" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="1">
+        <v>260</v>
+      </c>
+      <c r="D60" s="1">
+        <v>260</v>
+      </c>
+      <c r="F60" s="1">
+        <v>260</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="1">
+        <v>260</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="1">
+        <v>260</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="1">
+        <v>261</v>
+      </c>
+      <c r="D61" s="1">
+        <v>261</v>
+      </c>
+      <c r="F61" s="1">
+        <v>261</v>
+      </c>
+      <c r="H61" s="1">
+        <v>261</v>
+      </c>
+      <c r="J61" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="1">
+        <v>262</v>
+      </c>
+      <c r="D62" s="1">
+        <v>262</v>
+      </c>
+      <c r="F62" s="1">
+        <v>262</v>
+      </c>
+      <c r="H62" s="1">
+        <v>262</v>
+      </c>
+      <c r="J62" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="1">
+        <v>263</v>
+      </c>
+      <c r="D63" s="1">
+        <v>263</v>
+      </c>
+      <c r="F63" s="1">
+        <v>263</v>
+      </c>
+      <c r="H63" s="1">
+        <v>263</v>
+      </c>
+      <c r="J63" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="1">
+        <v>264</v>
+      </c>
+      <c r="D64" s="1">
+        <v>264</v>
+      </c>
+      <c r="F64" s="1">
+        <v>264</v>
+      </c>
+      <c r="H64" s="1">
+        <v>264</v>
+      </c>
+      <c r="J64" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="1">
+        <v>265</v>
+      </c>
+      <c r="D65" s="1">
+        <v>265</v>
+      </c>
+      <c r="F65" s="1">
+        <v>265</v>
+      </c>
+      <c r="H65" s="1">
+        <v>265</v>
+      </c>
+      <c r="J65" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="1">
+        <v>267</v>
+      </c>
+      <c r="D66" s="1">
+        <v>267</v>
+      </c>
+      <c r="F66" s="1">
+        <v>267</v>
+      </c>
+      <c r="H66" s="1">
+        <v>267</v>
+      </c>
+      <c r="J66" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="1">
+        <v>292</v>
+      </c>
+      <c r="D67" s="1">
+        <v>292</v>
+      </c>
+      <c r="F67" s="1">
+        <v>292</v>
+      </c>
+      <c r="H67" s="1">
+        <v>292</v>
+      </c>
+      <c r="J67" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="1">
+        <v>294</v>
+      </c>
+      <c r="D68" s="1">
+        <v>294</v>
+      </c>
+      <c r="F68" s="1">
+        <v>294</v>
+      </c>
+      <c r="H68" s="1">
+        <v>294</v>
+      </c>
+      <c r="J68" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="1">
+        <v>295</v>
+      </c>
+      <c r="D69" s="1">
+        <v>295</v>
+      </c>
+      <c r="F69" s="1">
+        <v>295</v>
+      </c>
+      <c r="H69" s="1">
+        <v>295</v>
+      </c>
+      <c r="J69" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="1">
+        <v>296</v>
+      </c>
+      <c r="D70" s="1">
+        <v>296</v>
+      </c>
+      <c r="F70" s="1">
+        <v>296</v>
+      </c>
+      <c r="H70" s="1">
+        <v>296</v>
+      </c>
+      <c r="J70" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="29">
+        <v>10</v>
+      </c>
+      <c r="D75" s="29">
+        <v>10</v>
+      </c>
+      <c r="F75" s="29">
+        <v>10</v>
+      </c>
+      <c r="H75" s="29">
+        <v>10</v>
+      </c>
+      <c r="J75" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>15</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>18</v>
+      </c>
+      <c r="J78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+      <c r="F79">
+        <v>19</v>
+      </c>
+      <c r="H79">
+        <v>19</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>24</v>
+      </c>
+      <c r="F80">
+        <v>24</v>
+      </c>
+      <c r="H80">
+        <v>24</v>
+      </c>
+      <c r="J80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <v>25</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>26</v>
+      </c>
+      <c r="H82">
+        <v>26</v>
+      </c>
+      <c r="J82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>27</v>
+      </c>
+      <c r="F83">
+        <v>27</v>
+      </c>
+      <c r="H83">
+        <v>27</v>
+      </c>
+      <c r="J83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>31</v>
+      </c>
+      <c r="F84">
+        <v>31</v>
+      </c>
+      <c r="H84">
+        <v>31</v>
+      </c>
+      <c r="J84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>32</v>
+      </c>
+      <c r="F85">
+        <v>32</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85">
+        <v>32</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85">
+        <v>32</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86">
+        <v>34</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+      <c r="F86">
+        <v>34</v>
+      </c>
+      <c r="H86">
+        <v>34</v>
+      </c>
+      <c r="J86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87">
+        <v>36</v>
+      </c>
+      <c r="D87">
+        <v>36</v>
+      </c>
+      <c r="F87">
+        <v>36</v>
+      </c>
+      <c r="H87">
+        <v>36</v>
+      </c>
+      <c r="J87">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88">
+        <v>40</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="F88">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>40</v>
+      </c>
+      <c r="J88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89">
+        <v>42</v>
+      </c>
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="F89">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>42</v>
+      </c>
+      <c r="J89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90">
+        <v>46</v>
+      </c>
+      <c r="D90">
+        <v>46</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
+      </c>
+      <c r="H90">
+        <v>46</v>
+      </c>
+      <c r="J90">
+        <v>46</v>
+      </c>
+      <c r="K90" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91">
+        <v>49</v>
+      </c>
+      <c r="D91">
+        <v>49</v>
+      </c>
+      <c r="F91">
+        <v>49</v>
+      </c>
+      <c r="H91">
+        <v>49</v>
+      </c>
+      <c r="J91">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92">
+        <v>54</v>
+      </c>
+      <c r="D92">
+        <v>54</v>
+      </c>
+      <c r="F92">
+        <v>54</v>
+      </c>
+      <c r="H92">
+        <v>54</v>
+      </c>
+      <c r="J92">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93">
+        <v>55</v>
+      </c>
+      <c r="D93">
+        <v>55</v>
+      </c>
+      <c r="F93">
+        <v>55</v>
+      </c>
+      <c r="H93">
+        <v>55</v>
+      </c>
+      <c r="J93">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>56</v>
+      </c>
+      <c r="F94">
+        <v>56</v>
+      </c>
+      <c r="H94">
+        <v>56</v>
+      </c>
+      <c r="J94">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95">
+        <v>59</v>
+      </c>
+      <c r="D95">
+        <v>59</v>
+      </c>
+      <c r="F95">
+        <v>59</v>
+      </c>
+      <c r="H95">
+        <v>59</v>
+      </c>
+      <c r="J95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96">
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <v>61</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96">
+        <v>61</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>61</v>
+      </c>
+      <c r="I96" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96">
+        <v>61</v>
+      </c>
+      <c r="K96" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <v>62</v>
+      </c>
+      <c r="H97">
+        <v>62</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97">
+        <v>62</v>
+      </c>
+      <c r="K97" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98">
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <v>65</v>
+      </c>
+      <c r="F98">
+        <v>65</v>
+      </c>
+      <c r="H98">
+        <v>65</v>
+      </c>
+      <c r="J98">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99">
+        <v>66</v>
+      </c>
+      <c r="D99">
+        <v>66</v>
+      </c>
+      <c r="F99">
+        <v>66</v>
+      </c>
+      <c r="H99">
+        <v>66</v>
+      </c>
+      <c r="J99">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="29">
+        <v>69</v>
+      </c>
+      <c r="D100" s="29">
+        <v>69</v>
+      </c>
+      <c r="F100" s="29">
+        <v>69</v>
+      </c>
+      <c r="H100" s="29">
+        <v>69</v>
+      </c>
+      <c r="J100" s="29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101">
+        <v>70</v>
+      </c>
+      <c r="D101">
+        <v>70</v>
+      </c>
+      <c r="F101">
+        <v>70</v>
+      </c>
+      <c r="H101">
+        <v>70</v>
+      </c>
+      <c r="J101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102">
+        <v>72</v>
+      </c>
+      <c r="D102">
+        <v>72</v>
+      </c>
+      <c r="F102">
+        <v>72</v>
+      </c>
+      <c r="H102">
+        <v>72</v>
+      </c>
+      <c r="J102">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103">
+        <v>73</v>
+      </c>
+      <c r="D103">
+        <v>73</v>
+      </c>
+      <c r="F103">
+        <v>73</v>
+      </c>
+      <c r="H103">
+        <v>73</v>
+      </c>
+      <c r="J103">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104">
+        <v>74</v>
+      </c>
+      <c r="D104">
+        <v>74</v>
+      </c>
+      <c r="F104">
+        <v>74</v>
+      </c>
+      <c r="H104">
+        <v>74</v>
+      </c>
+      <c r="J104">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105">
+        <v>76</v>
+      </c>
+      <c r="D105">
+        <v>76</v>
+      </c>
+      <c r="F105">
+        <v>76</v>
+      </c>
+      <c r="H105">
+        <v>76</v>
+      </c>
+      <c r="J105">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106">
+        <v>77</v>
+      </c>
+      <c r="D106">
+        <v>77</v>
+      </c>
+      <c r="F106">
+        <v>77</v>
+      </c>
+      <c r="H106">
+        <v>77</v>
+      </c>
+      <c r="J106">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>80</v>
+      </c>
+      <c r="F107">
+        <v>80</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107">
+        <v>80</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J107">
+        <v>80</v>
+      </c>
+      <c r="K107" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="24"/>
+      <c r="B108">
+        <v>85</v>
+      </c>
+      <c r="D108">
+        <v>85</v>
+      </c>
+      <c r="F108">
+        <v>85</v>
+      </c>
+      <c r="H108">
+        <v>85</v>
+      </c>
+      <c r="J108">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="D109">
+        <v>87</v>
+      </c>
+      <c r="F109">
+        <v>87</v>
+      </c>
+      <c r="H109">
+        <v>87</v>
+      </c>
+      <c r="J109">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110">
+        <v>89</v>
+      </c>
+      <c r="D110">
+        <v>89</v>
+      </c>
+      <c r="F110">
+        <v>89</v>
+      </c>
+      <c r="H110">
+        <v>89</v>
+      </c>
+      <c r="J110">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111">
+        <v>90</v>
+      </c>
+      <c r="D111">
+        <v>90</v>
+      </c>
+      <c r="F111">
+        <v>90</v>
+      </c>
+      <c r="H111">
+        <v>90</v>
+      </c>
+      <c r="J111">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="B112">
+        <v>91</v>
+      </c>
+      <c r="D112">
+        <v>91</v>
+      </c>
+      <c r="F112">
+        <v>91</v>
+      </c>
+      <c r="H112">
+        <v>91</v>
+      </c>
+      <c r="J112">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113">
+        <v>92</v>
+      </c>
+      <c r="D113">
+        <v>92</v>
+      </c>
+      <c r="F113">
+        <v>92</v>
+      </c>
+      <c r="H113">
+        <v>92</v>
+      </c>
+      <c r="J113">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114">
+        <v>99</v>
+      </c>
+      <c r="D114">
+        <v>99</v>
+      </c>
+      <c r="F114">
+        <v>99</v>
+      </c>
+      <c r="H114">
+        <v>99</v>
+      </c>
+      <c r="J114">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+      <c r="K115" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116">
+        <v>103</v>
+      </c>
+      <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="F116">
+        <v>103</v>
+      </c>
+      <c r="H116">
+        <v>103</v>
+      </c>
+      <c r="J116">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117">
+        <v>104</v>
+      </c>
+      <c r="D117">
+        <v>104</v>
+      </c>
+      <c r="F117">
+        <v>104</v>
+      </c>
+      <c r="H117">
+        <v>104</v>
+      </c>
+      <c r="J117">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118">
+        <v>105</v>
+      </c>
+      <c r="D118">
+        <v>105</v>
+      </c>
+      <c r="F118">
+        <v>105</v>
+      </c>
+      <c r="H118">
+        <v>105</v>
+      </c>
+      <c r="J118">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119">
+        <v>107</v>
+      </c>
+      <c r="D119">
+        <v>107</v>
+      </c>
+      <c r="F119">
+        <v>107</v>
+      </c>
+      <c r="H119">
+        <v>107</v>
+      </c>
+      <c r="J119">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120">
+        <v>110</v>
+      </c>
+      <c r="D120">
+        <v>110</v>
+      </c>
+      <c r="F120">
+        <v>110</v>
+      </c>
+      <c r="H120">
+        <v>110</v>
+      </c>
+      <c r="I120" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120">
+        <v>110</v>
+      </c>
+      <c r="K120" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121">
+        <v>111</v>
+      </c>
+      <c r="D121">
+        <v>111</v>
+      </c>
+      <c r="F121">
+        <v>111</v>
+      </c>
+      <c r="H121">
+        <v>111</v>
+      </c>
+      <c r="J121">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122">
+        <v>112</v>
+      </c>
+      <c r="D122">
+        <v>112</v>
+      </c>
+      <c r="F122">
+        <v>112</v>
+      </c>
+      <c r="H122">
+        <v>112</v>
+      </c>
+      <c r="J122">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123">
+        <v>113</v>
+      </c>
+      <c r="D123">
+        <v>113</v>
+      </c>
+      <c r="F123">
+        <v>113</v>
+      </c>
+      <c r="H123">
+        <v>113</v>
+      </c>
+      <c r="J123">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124">
+        <v>116</v>
+      </c>
+      <c r="D124">
+        <v>116</v>
+      </c>
+      <c r="F124">
+        <v>116</v>
+      </c>
+      <c r="H124">
+        <v>116</v>
+      </c>
+      <c r="J124">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A70"/>
+    <mergeCell ref="A71:A124"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/casefile_test_record/casefile_test.xlsx
+++ b/casefile_test_record/casefile_test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="112">
   <si>
     <t>Region</t>
   </si>
@@ -332,6 +332,36 @@
   </si>
   <si>
     <t>1654-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-822</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-1254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-248</t>
+  </si>
+  <si>
+    <t>1-1335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-258</t>
   </si>
 </sst>
 </file>
@@ -3727,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U298" workbookViewId="0">
-      <selection activeCell="AH340" sqref="AH340"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,6 +4725,9 @@
       <c r="AC21" s="1">
         <v>106</v>
       </c>
+      <c r="AD21" s="25" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
@@ -9267,6 +9300,9 @@
       <c r="AC126" s="1">
         <v>627</v>
       </c>
+      <c r="AD126" s="25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
@@ -10732,7 +10768,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" s="34"/>
       <c r="B161" s="1">
         <v>810</v>
@@ -10774,7 +10810,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" s="34"/>
       <c r="B162" s="1">
         <v>811</v>
@@ -10816,7 +10852,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" s="34"/>
       <c r="B163" s="1">
         <v>812</v>
@@ -10858,7 +10894,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" s="34"/>
       <c r="B164" s="22">
         <v>813</v>
@@ -10900,7 +10936,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" s="34"/>
       <c r="B165" s="1">
         <v>819</v>
@@ -10942,7 +10978,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" s="34"/>
       <c r="B166" s="1">
         <v>820</v>
@@ -10984,7 +11020,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" s="34"/>
       <c r="B167" s="1">
         <v>822</v>
@@ -11025,8 +11061,11 @@
       <c r="AC167" s="1">
         <v>822</v>
       </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD167" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" s="34"/>
       <c r="B168" s="1">
         <v>836</v>
@@ -11068,7 +11107,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" s="34"/>
       <c r="B169" s="1">
         <v>837</v>
@@ -11110,7 +11149,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" s="34"/>
       <c r="B170" s="1">
         <v>844</v>
@@ -11152,7 +11191,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" s="34"/>
       <c r="B171" s="22">
         <v>853</v>
@@ -11194,7 +11233,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" s="34"/>
       <c r="B172" s="1">
         <v>857</v>
@@ -11236,7 +11275,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="34"/>
       <c r="B173" s="1">
         <v>861</v>
@@ -11278,7 +11317,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="34"/>
       <c r="B174" s="1">
         <v>863</v>
@@ -11320,7 +11359,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="34"/>
       <c r="B175" s="1">
         <v>869</v>
@@ -11362,7 +11401,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="34"/>
       <c r="B176" s="22">
         <v>872</v>
@@ -14271,6 +14310,9 @@
       <c r="AC242" s="1">
         <v>1254</v>
       </c>
+      <c r="AD242" s="25" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" s="34"/>
@@ -14931,6 +14973,9 @@
       <c r="AC257" s="1">
         <v>1335</v>
       </c>
+      <c r="AD257" s="25" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="34"/>
@@ -15551,6 +15596,9 @@
       <c r="AC269">
         <v>77</v>
       </c>
+      <c r="AD269" s="25" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="34"/>
@@ -16451,6 +16499,9 @@
       <c r="AC288" s="1">
         <v>164</v>
       </c>
+      <c r="AD288" s="25" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289" s="34"/>
@@ -17195,6 +17246,9 @@
       <c r="AC304">
         <v>220</v>
       </c>
+      <c r="AD304" s="25" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" s="34"/>
@@ -17375,6 +17429,9 @@
       <c r="AC308" s="1">
         <v>248</v>
       </c>
+      <c r="AD308" s="25" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" s="34"/>
@@ -17831,6 +17888,9 @@
       <c r="AC318" s="1">
         <v>258</v>
       </c>
+      <c r="AD318" s="25" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A319" s="34"/>
@@ -18395,6 +18455,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:P261"/>
+    <mergeCell ref="P262:P330"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:S261"/>
+    <mergeCell ref="S262:S330"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:J261"/>
+    <mergeCell ref="J262:J330"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:M261"/>
+    <mergeCell ref="M262:M330"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:G261"/>
+    <mergeCell ref="G262:G330"/>
+    <mergeCell ref="A2:A261"/>
+    <mergeCell ref="A262:A330"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:D261"/>
+    <mergeCell ref="D262:D330"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AB2:AB261"/>
     <mergeCell ref="AB262:AB330"/>
@@ -18404,27 +18485,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="Y2:Y261"/>
     <mergeCell ref="Y262:Y330"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:G261"/>
-    <mergeCell ref="G262:G330"/>
-    <mergeCell ref="A2:A261"/>
-    <mergeCell ref="A262:A330"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:D261"/>
-    <mergeCell ref="D262:D330"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:J261"/>
-    <mergeCell ref="J262:J330"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:M261"/>
-    <mergeCell ref="M262:M330"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:P261"/>
-    <mergeCell ref="P262:P330"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:S261"/>
-    <mergeCell ref="S262:S330"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
